--- a/我的创作/财务/股票/大盘分析.xlsx
+++ b/我的创作/财务/股票/大盘分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420"/>
+    <workbookView windowWidth="26500" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,46 +29,13 @@
     <t>目前是正常回调还是衰退</t>
   </si>
   <si>
-    <r>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日均线</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日均线</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日均线</t>
-    </r>
+    <t>200日均线</t>
+  </si>
+  <si>
+    <t>150日均线</t>
+  </si>
+  <si>
+    <t>50日均线</t>
   </si>
   <si>
     <t>各均线斜率是否朝上</t>
@@ -77,83 +44,21 @@
     <t>当前股价</t>
   </si>
   <si>
-    <r>
-      <t>52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周内最低点</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF161616"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周内最高点</t>
-    </r>
+    <t>52周内最低点</t>
+  </si>
+  <si>
+    <t>52周内最高点</t>
   </si>
   <si>
     <t>最高点前8周收盘价</t>
   </si>
   <si>
-    <r>
-      <t>当前股价相对于最低点百分比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(至少高出25%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>当前股价相对于最高点百分比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(25%内最好)</t>
-    </r>
+    <t>当前股价相对于最低点百分比
+(至少高出25%)</t>
+  </si>
+  <si>
+    <t>当前股价相对于最高点百分比
+(25%内最好)</t>
   </si>
   <si>
     <t>最高点前8周股价相对于最高点百分比</t>
@@ -164,13 +69,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,24 +84,116 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
+      <sz val="9"/>
+      <color rgb="FF161616"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF161616"/>
-      <name val="Helvetica Neue"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -205,23 +202,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,22 +223,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -258,93 +239,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF161616"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -386,25 +285,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,157 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,51 +525,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -691,6 +549,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -705,204 +593,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1226,10 +1116,17 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <cols>
+    <col min="11" max="11" width="12.4910714285714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -1238,52 +1135,52 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
       <c r="M1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="14" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="10" t="s">
@@ -1295,40 +1192,38 @@
       <c r="L2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
     </row>
-    <row r="3" ht="58" spans="1:19">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+    <row r="3" ht="55" customHeight="1" spans="1:19">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1341,6 +1236,8 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M1:P3"/>
+    <mergeCell ref="Q1:S3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
